--- a/Data Analysis/MotionDataT3_3.xlsx
+++ b/Data Analysis/MotionDataT3_3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timtattersall/Dropbox (Personal)/Uni/2017/Tri 2/Cyber Physical Systems/Weekly Tasks/Week 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timtattersall/Dropbox (Personal)/Uni/2017/Tri 2/Cyber Physical Systems/sit107/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="460" windowWidth="22420" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="7740" yWindow="460" windowWidth="22420" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -194,28 +195,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -871,7 +878,7 @@
         <v>225</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:F35" si="2">IF(B3="Active",D4,0)</f>
+        <f t="shared" ref="E4:E35" si="2">IF(B3="Active",D4,0)</f>
         <v>0</v>
       </c>
       <c r="F4" s="6">
@@ -1653,24 +1660,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>15.000000006984919</v>
       </c>
@@ -1682,7 +1690,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>5.4999999969732016</v>
       </c>
@@ -1692,7 +1700,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>4.4999999937135726</v>
       </c>
@@ -1706,7 +1714,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>16.999999992549419</v>
       </c>
@@ -1720,7 +1728,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>10.000000001164153</v>
       </c>
@@ -1734,7 +1742,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>15.333333334419876</v>
       </c>
@@ -1748,7 +1756,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>8.9999999979045242</v>
       </c>
@@ -1762,7 +1770,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>4.0000000025611371</v>
       </c>
@@ -1776,7 +1784,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>15.333333334419876</v>
       </c>
@@ -1790,7 +1798,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10.666666666511446</v>
       </c>
@@ -1804,7 +1812,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>4.0000000025611371</v>
       </c>
@@ -1818,7 +1826,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>14.99999999650754</v>
       </c>
@@ -1832,7 +1840,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>9.7499999951105565</v>
       </c>
@@ -1844,9 +1852,16 @@
         <v>16.999999992549419</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="11">
+        <f>_xlfn.T.INV(0.95,16)</f>
+        <v>1.7458836762762506</v>
+      </c>
+      <c r="J14" s="10">
+        <f>(D4-9)/D5</f>
+        <v>1.1866395880054346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>8.0000000051222742</v>
       </c>
@@ -1860,7 +1875,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15.333333334419876</v>
       </c>
